--- a/SSW-555--Project 04-Sprint3/Team_DDGK_Report.xlsx
+++ b/SSW-555--Project 04-Sprint3/Team_DDGK_Report.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopi/Desktop/SSW-555--Project 04-Sprint3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krutarth\Desktop\SSW-555--Project 04-Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0CFAB-E85C-CC49-8A06-158E765657E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D976D17-DD09-4925-BFD4-46C00F8617A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25140" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
     <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown README" sheetId="13" r:id="rId3"/>
-    <sheet name="Sprint1" sheetId="3" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="7" r:id="rId5"/>
-    <sheet name="Sprint2" sheetId="4" r:id="rId6"/>
-    <sheet name="Sprint3" sheetId="5" r:id="rId7"/>
-    <sheet name="Stories" sheetId="11" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="13" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
+    <sheet name="Burndown" sheetId="7" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId8"/>
+    <sheet name="Stories" sheetId="11" r:id="rId9"/>
+    <sheet name="Sprint4" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="264">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -759,6 +760,111 @@
   </si>
   <si>
     <t>Missing the deadline</t>
+  </si>
+  <si>
+    <t>UserStories.py</t>
+  </si>
+  <si>
+    <t>﻿US19_first_cousins</t>
+  </si>
+  <si>
+    <t>﻿US20_aunts_and_uncles</t>
+  </si>
+  <si>
+    <t>573-597</t>
+  </si>
+  <si>
+    <t>531-563</t>
+  </si>
+  <si>
+    <t>UnitTest.py</t>
+  </si>
+  <si>
+    <t>﻿test_US19</t>
+  </si>
+  <si>
+    <t>﻿test_US20</t>
+  </si>
+  <si>
+    <t>154-158</t>
+  </si>
+  <si>
+    <t>161-165</t>
+  </si>
+  <si>
+    <t>168-172</t>
+  </si>
+  <si>
+    <t>﻿test_US23</t>
+  </si>
+  <si>
+    <t>﻿test_US24</t>
+  </si>
+  <si>
+    <t>﻿US23_Unique_name_birth_date</t>
+  </si>
+  <si>
+    <t>﻿US24_Unique_families_by_spouses</t>
+  </si>
+  <si>
+    <t>619-632</t>
+  </si>
+  <si>
+    <t>601-615</t>
+  </si>
+  <si>
+    <t>US22_Unique_IDs</t>
+  </si>
+  <si>
+    <t>US21_Correct_gender_for_role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Us18_no_should_marry_eachother </t>
+  </si>
+  <si>
+    <t>530-570</t>
+  </si>
+  <si>
+    <t>575-599</t>
+  </si>
+  <si>
+    <t>644-669</t>
+  </si>
+  <si>
+    <t>675-699</t>
+  </si>
+  <si>
+    <t>﻿test_U18</t>
+  </si>
+  <si>
+    <t>﻿test_US21</t>
+  </si>
+  <si>
+    <t>﻿test_US22</t>
+  </si>
+  <si>
+    <t>147-153</t>
+  </si>
+  <si>
+    <t>140-146</t>
+  </si>
+  <si>
+    <t>175-179</t>
+  </si>
+  <si>
+    <t>198-204</t>
+  </si>
+  <si>
+    <t>205-211</t>
+  </si>
+  <si>
+    <t>US16_Male_last_names_should_be_same</t>
+  </si>
+  <si>
+    <t>﻿test_US16</t>
+  </si>
+  <si>
+    <t>Ww had to change the user story because we found difficulty adding parent child marriage scenario in gedcom so we changed user story to 16.</t>
   </si>
 </sst>
 </file>
@@ -769,7 +875,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -919,27 +1025,43 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="16"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1063,7 +1185,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1144,18 +1266,57 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1265,7 +1426,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42046</c:v>
@@ -1336,7 +1497,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1413,6 +1574,9 @@
                 <c:pt idx="2">
                   <c:v>42087</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42101</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1430,6 +1594,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,20 +2486,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2349,7 +2516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -2366,7 +2533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -2383,7 +2550,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -2400,7 +2567,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -2417,7 +2584,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2442,584 +2609,920 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="67" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28" style="50"/>
+    <col min="2" max="2" width="46.3046875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.15234375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="28" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="50">
+        <v>25</v>
+      </c>
+      <c r="F2" s="50">
+        <v>30</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="str">
+        <f>Stories!A37</f>
+        <v>US36</v>
+      </c>
+      <c r="B3" s="51" t="str">
+        <f>Stories!B37</f>
+        <v>List recent deaths</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="50">
+        <v>45</v>
+      </c>
+      <c r="F3" s="50">
+        <v>55</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="50">
+        <v>30</v>
+      </c>
+      <c r="F4" s="50">
+        <v>50</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="50">
+        <v>25</v>
+      </c>
+      <c r="F5" s="50">
+        <v>45</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="str">
+        <f>Stories!A39</f>
+        <v>US38</v>
+      </c>
+      <c r="B6" s="51" t="str">
+        <f>Stories!B39</f>
+        <v>List upcoming birthdays</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="50">
+        <v>20</v>
+      </c>
+      <c r="F6" s="50">
+        <v>50</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="str">
+        <f>Stories!A40</f>
+        <v>US39</v>
+      </c>
+      <c r="B7" s="51" t="str">
+        <f>Stories!B40</f>
+        <v>List upcoming anniversaries</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="50">
+        <v>25</v>
+      </c>
+      <c r="F7" s="50">
+        <v>45</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="50">
+        <v>30</v>
+      </c>
+      <c r="F8" s="50">
+        <v>55</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="50">
+        <v>27</v>
+      </c>
+      <c r="F9" s="50">
+        <v>40</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="46"/>
+    </row>
+    <row r="15" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="54"/>
+    </row>
+    <row r="23" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.15234375" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59">
         <v>1</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="59">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="E10" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
         <v>2</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="E11" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59">
         <v>2</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="E12" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59">
         <v>2</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="E13" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59">
         <v>2</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="E14" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59">
         <v>2</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="E15" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="E16" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59">
+        <v>3</v>
+      </c>
+      <c r="B18" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D18" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="E18" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59">
         <v>3</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="B19" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E19" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="59">
+        <v>3</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59">
+        <v>3</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="59">
+        <v>3</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="59">
+        <v>3</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59">
+        <v>3</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59">
+        <v>3</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59">
+        <v>4</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="59" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="20" t="s">
+    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59">
+        <v>4</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="59">
+        <v>4</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="59">
+        <v>4</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59">
+        <v>4</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E30" s="59" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" s="30" t="s">
+    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="59">
+        <v>4</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="59" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" s="30" t="s">
+    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="59">
+        <v>4</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="59" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="24" t="s">
+    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="59">
+        <v>4</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E33" s="59" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="30"/>
     </row>
   </sheetData>
@@ -3030,6 +3533,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC081FF-5003-428C-A083-91F6164CB453}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -3037,47 +3552,47 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3100,7 +3615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -3116,7 +3631,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3141,7 +3656,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -3167,7 +3682,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -3192,7 +3707,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -3224,35 +3739,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.4609375" style="15" customWidth="1"/>
     <col min="12" max="12" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="15"/>
-    <col min="15" max="15" width="9.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.69140625" style="15"/>
+    <col min="15" max="15" width="9.15234375" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3299,7 +3814,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>112</v>
       </c>
@@ -3338,7 +3853,7 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>113</v>
       </c>
@@ -3373,7 +3888,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>114</v>
       </c>
@@ -3408,7 +3923,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>115</v>
       </c>
@@ -3443,7 +3958,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>116</v>
       </c>
@@ -3478,7 +3993,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>117</v>
       </c>
@@ -3513,7 +4028,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>118</v>
       </c>
@@ -3552,7 +4067,7 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>119</v>
       </c>
@@ -3587,52 +4102,52 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="30"/>
       <c r="G10">
         <f>SUM(G2:G9)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42" t="s">
         <v>215</v>
       </c>
@@ -3644,25 +4159,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="21.69140625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3682,7 +4197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42046</v>
       </c>
@@ -3702,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42061</v>
       </c>
@@ -3724,7 +4239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42087</v>
       </c>
@@ -3743,6 +4258,26 @@
       <c r="F4" s="7">
         <f>(D4-D3)/E4*60</f>
         <v>53.142857142857139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>42101</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>278</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7">
+        <v>59.1</v>
       </c>
     </row>
   </sheetData>
@@ -3753,21 +4288,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B25"/>
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69140625" customWidth="1"/>
+    <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3796,7 +4331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>120</v>
       </c>
@@ -3825,7 +4360,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>121</v>
       </c>
@@ -3854,7 +4389,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>122</v>
       </c>
@@ -3883,7 +4418,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>123</v>
       </c>
@@ -3912,7 +4447,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>124</v>
       </c>
@@ -3941,7 +4476,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>125</v>
       </c>
@@ -3970,7 +4505,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>126</v>
       </c>
@@ -3999,7 +4534,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>142</v>
       </c>
@@ -4028,68 +4563,68 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B25" s="42" t="s">
         <v>224</v>
       </c>
@@ -4101,247 +4636,537 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="87" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="57"/>
+    <col min="2" max="2" width="27" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.921875" style="57" customWidth="1"/>
+    <col min="4" max="10" width="19" style="57"/>
+    <col min="11" max="11" width="44.69140625" style="57" customWidth="1"/>
+    <col min="12" max="16384" width="19" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="J1" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="57">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="57">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="G2" s="57">
+        <v>35</v>
+      </c>
+      <c r="H2" s="57">
+        <v>25</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="57">
         <v>35</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="57">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="G3" s="57">
+        <v>24</v>
+      </c>
+      <c r="H3" s="57">
+        <v>45</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="57">
         <v>25</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="57">
         <v>60</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="57">
+        <v>32</v>
+      </c>
+      <c r="H4" s="57">
+        <v>65</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="57">
         <v>30</v>
       </c>
-      <c r="H4">
-        <v>65</v>
-      </c>
-      <c r="I4" s="30" t="s">
+      <c r="F5" s="57">
+        <v>45</v>
+      </c>
+      <c r="G5" s="57">
+        <v>24</v>
+      </c>
+      <c r="H5" s="57">
+        <v>40</v>
+      </c>
+      <c r="I5" s="59" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="J5" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="57">
+        <v>20</v>
+      </c>
+      <c r="F6" s="57">
+        <v>50</v>
+      </c>
+      <c r="G6" s="57">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="H6" s="57">
         <v>45</v>
       </c>
-      <c r="G5">
-        <v>24</v>
-      </c>
-      <c r="H5">
+      <c r="I6" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="57">
+        <v>25</v>
+      </c>
+      <c r="F7" s="57">
+        <v>45</v>
+      </c>
+      <c r="G7" s="57">
+        <v>27</v>
+      </c>
+      <c r="H7" s="57">
+        <v>30</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="57">
+        <v>30</v>
+      </c>
+      <c r="F8" s="57">
+        <v>55</v>
+      </c>
+      <c r="G8" s="57">
+        <v>14</v>
+      </c>
+      <c r="H8" s="57">
+        <v>45</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="57">
+        <v>27</v>
+      </c>
+      <c r="F9" s="57">
         <v>40</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="G9" s="57">
+        <v>13</v>
+      </c>
+      <c r="H9" s="57">
+        <v>30</v>
+      </c>
+      <c r="I9" s="59" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8">
+      <c r="J9" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
+    </row>
+    <row r="15" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="61" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="61"/>
+    </row>
+    <row r="24" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="61" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C36"/>
+    <sheetView topLeftCell="A12" zoomScale="61" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -4352,7 +5177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
@@ -4367,7 +5192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>113</v>
       </c>
@@ -4382,7 +5207,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -4397,7 +5222,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>115</v>
       </c>
@@ -4412,7 +5237,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -4423,7 +5248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>117</v>
       </c>
@@ -4434,7 +5259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>118</v>
       </c>
@@ -4445,7 +5270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>119</v>
       </c>
@@ -4456,7 +5281,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
@@ -4467,7 +5292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>121</v>
       </c>
@@ -4478,7 +5303,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>122</v>
       </c>
@@ -4489,7 +5314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -4500,7 +5325,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -4511,7 +5336,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>125</v>
       </c>
@@ -4522,7 +5347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>126</v>
       </c>
@@ -4533,7 +5358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>127</v>
       </c>
@@ -4544,7 +5369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>128</v>
       </c>
@@ -4555,7 +5380,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>129</v>
       </c>
@@ -4566,7 +5391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>130</v>
       </c>
@@ -4577,7 +5402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>131</v>
       </c>
@@ -4588,7 +5413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>132</v>
       </c>
@@ -4599,7 +5424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
@@ -4610,7 +5435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>134</v>
       </c>
@@ -4621,7 +5446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>135</v>
       </c>
@@ -4632,7 +5457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>136</v>
       </c>
@@ -4643,18 +5468,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>137</v>
       </c>
       <c r="B27" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="44" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>138</v>
       </c>
@@ -4665,7 +5490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>139</v>
       </c>
@@ -4676,7 +5501,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>140</v>
       </c>
@@ -4687,7 +5512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>141</v>
       </c>
@@ -4698,7 +5523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>142</v>
       </c>
@@ -4709,7 +5534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>143</v>
       </c>
@@ -4720,7 +5545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -4731,7 +5556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -4742,7 +5567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>146</v>
       </c>
@@ -4753,7 +5578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -4764,7 +5589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -4775,7 +5600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -4786,7 +5611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -4797,7 +5622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -4808,7 +5633,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -4819,7 +5644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -4834,295 +5659,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="67" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="47">
-        <v>30</v>
-      </c>
-      <c r="F3" s="47">
-        <v>50</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="47">
-        <v>25</v>
-      </c>
-      <c r="F4" s="47">
-        <v>45</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-    </row>
-    <row r="7" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-    </row>
-    <row r="12" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="42" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="42"/>
-    </row>
-    <row r="22" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="42" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="42" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>